--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail11 Features.xlsx
@@ -4593,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4604,29 +4604,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4647,115 +4645,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4772,72 +4760,66 @@
         <v>2.769533291753251e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.257742300054183</v>
+        <v>9.447831753855532e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.243381075434381</v>
+        <v>2.926672697982635e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.447831753855532e-07</v>
+        <v>-0.04139542410721785</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.926672697982635e-06</v>
+        <v>0.08320874254800785</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04139542410721785</v>
+        <v>0.008628792543750145</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.08320874254800785</v>
+        <v>1.686456214424941</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.008628792543750145</v>
+        <v>1.476283013511415</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.6238672054949</v>
+        <v>4.550364403674699</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.476283013511415</v>
+        <v>4.076649414516947e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.550364403674699</v>
+        <v>42815551.34715013</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.076649414516947e-15</v>
+        <v>2.512694242543856e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>42815551.34715013</v>
+        <v>7.473197266009337</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.512694242543856e-06</v>
+        <v>0.0001234085811772927</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7.473197266009337</v>
+        <v>7.02598615882985</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001234085811772927</v>
+        <v>1.481028442467069</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.02598615882985</v>
+        <v>0.00609200062296982</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.481028442467069</v>
+        <v>3.17733940041947</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00609200062296982</v>
+        <v>0.9523536354339113</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.17733940041947</v>
+        <v>1.817372725619707</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9523536354339113</v>
+        <v>24</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.817372725619707</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1897520590877607</v>
       </c>
     </row>
@@ -4852,72 +4834,66 @@
         <v>2.809050777627385e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2859815255283017</v>
+        <v>9.632339266668656e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.189094476217216</v>
+        <v>2.914228908689737e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.632339266668656e-07</v>
+        <v>-0.04758255699053553</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.914228908689737e-06</v>
+        <v>0.06531927390980737</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04758255699053553</v>
+        <v>0.006524744208987954</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.06531927390980737</v>
+        <v>1.691257795989694</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.006524744208987954</v>
+        <v>1.456649368291134</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.628937568722341</v>
+        <v>4.743223786063641</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.456649368291134</v>
+        <v>3.751876105618224e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.743223786063641</v>
+        <v>46488577.86631983</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.751876105618224e-15</v>
+        <v>2.321431851390657e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>46488577.86631983</v>
+        <v>8.108509136832064</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.321431851390657e-06</v>
+        <v>0.0001390121495496548</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.108509136832064</v>
+        <v>8.414030223036569</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001390121495496548</v>
+        <v>1.410092831873591</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.414030223036569</v>
+        <v>0.009841490876948246</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.410092831873591</v>
+        <v>3.067677834246657</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009841490876948246</v>
+        <v>0.9523840383829031</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.067677834246657</v>
+        <v>1.859803902140539</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9523840383829031</v>
+        <v>24</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.859803902140539</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.187533227600055</v>
       </c>
     </row>
@@ -4932,72 +4908,66 @@
         <v>2.830280289238959e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3123815035324048</v>
+        <v>9.803163756697243e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.116345507547289</v>
+        <v>2.900085281659329e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.803163756697243e-07</v>
+        <v>-0.05238612806865429</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.900085281659329e-06</v>
+        <v>0.05195226306015632</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.05238612806865429</v>
+        <v>0.005440805612482581</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.05195226306015632</v>
+        <v>1.696261319351689</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.005440805612482581</v>
+        <v>1.420884071128977</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.634674842274904</v>
+        <v>5.206445042200786</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.420884071128977</v>
+        <v>3.113960807435838e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.206445042200786</v>
+        <v>55013278.66044433</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.113960807435838e-15</v>
+        <v>1.957455543212737e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>55013278.66044433</v>
+        <v>9.424280406657648</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.957455543212737e-06</v>
+        <v>0.0001882209573672731</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9.424280406657648</v>
+        <v>12.96236501521094</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001882209573672731</v>
+        <v>1.002455522017376</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.96236501521094</v>
+        <v>0.03162543237518747</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.002455522017376</v>
+        <v>2.466474265337558</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03162543237518747</v>
+        <v>0.9518753285735476</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.466474265337558</v>
+        <v>1.848510931282191</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9518753285735476</v>
+        <v>24</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.848510931282191</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2108577190415268</v>
       </c>
     </row>
@@ -5012,72 +4982,66 @@
         <v>2.833617881944419e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3293564294553991</v>
+        <v>9.95680005615908e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.043441302726567</v>
+        <v>2.884682450454743e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.95680005615908e-07</v>
+        <v>-0.05622702802877098</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.884682450454743e-06</v>
+        <v>0.04213902512886455</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05622702802877098</v>
+        <v>0.004935844422043387</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.04213902512886455</v>
+        <v>1.797882961439854</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.004935844422043387</v>
+        <v>1.711254195562015</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.755483784742893</v>
+        <v>4.021860584517006</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.711254195562015</v>
+        <v>2.667533051178025e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.021860584517006</v>
+        <v>60455671.6553621</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.667533051178025e-15</v>
+        <v>1.885877516218179e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>60455671.6553621</v>
+        <v>9.749535166027018</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.885877516218179e-06</v>
+        <v>0.0002866953552174803</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>9.749535166027018</v>
+        <v>12.16981018410474</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002866953552174803</v>
+        <v>1.332004912493024</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.16981018410474</v>
+        <v>0.04246080914007343</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.332004912493024</v>
+        <v>2.280632149655215</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.04246080914007343</v>
+        <v>0.9578703976117269</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.280632149655215</v>
+        <v>1.696184818762524</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9578703976117269</v>
+        <v>23</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.696184818762524</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2221384376022435</v>
       </c>
     </row>
@@ -5092,72 +5056,66 @@
         <v>2.819760607438181e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3321946983605369</v>
+        <v>1.008795338782048e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9873613416173646</v>
+        <v>2.868328719957353e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.008795338782048e-06</v>
+        <v>-0.05921368848089615</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.868328719957353e-06</v>
+        <v>0.03579650649028619</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05921368848089615</v>
+        <v>0.004787639078346229</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.03579650649028619</v>
+        <v>1.862107524073079</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.004787639078346229</v>
+        <v>1.498454224254595</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.841569877857463</v>
+        <v>5.592097905412183</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.498454224254595</v>
+        <v>1.357938524525783e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.592097905412183</v>
+        <v>113601630.9862905</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.357938524525783e-15</v>
+        <v>1.038058882254005e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>113601630.9862905</v>
+        <v>17.52464554289188</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.038058882254005e-06</v>
+        <v>0.0003268757806521445</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>17.52464554289188</v>
+        <v>11.41013143358628</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0003268757806521445</v>
+        <v>1.561648691835879</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.41013143358628</v>
+        <v>0.04255631722801483</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.561648691835879</v>
+        <v>2.36882529972907</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.04255631722801483</v>
+        <v>0.9590458374426029</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.36882529972907</v>
+        <v>1.655039695251007</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9590458374426029</v>
+        <v>23</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.655039695251007</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4684023880210532</v>
       </c>
     </row>
@@ -5172,72 +5130,66 @@
         <v>2.793037206363777e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3217679864409198</v>
+        <v>1.016521595032108e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9562485719614719</v>
+        <v>2.851454905110776e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.016521595032108e-06</v>
+        <v>-0.06065530878684423</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.851454905110776e-06</v>
+        <v>0.03460203923365147</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.06065530878684423</v>
+        <v>0.004876635313467397</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.03460203923365147</v>
+        <v>1.90314259333525</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.004876635313467397</v>
+        <v>1.693516765630448</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.917774577678496</v>
+        <v>5.753386928702025</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.693516765630448</v>
+        <v>3.781226045766167e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.753386928702025</v>
+        <v>383468365.7256511</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.781226045766167e-16</v>
+        <v>3.089249576024243e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>383468365.7256511</v>
+        <v>55.60216803590131</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.089249576024243e-07</v>
+        <v>0.000253085505010161</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>55.60216803590131</v>
+        <v>12.67301248091585</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000253085505010161</v>
+        <v>1.253836882884614</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.67301248091585</v>
+        <v>0.04064685962452144</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.253836882884614</v>
+        <v>2.876490915770174</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.04064685962452144</v>
+        <v>0.9597573661963427</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.876490915770174</v>
+        <v>1.394261563684326</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9597573661963427</v>
+        <v>23</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.394261563684326</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.315807906777342</v>
       </c>
     </row>
@@ -5252,72 +5204,66 @@
         <v>2.76202614385616e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3077795728052197</v>
+        <v>9.985844014468807e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.9373573813285128</v>
+        <v>2.834631929773825e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.985844014468807e-07</v>
+        <v>-0.06025781873080006</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.834631929773825e-06</v>
+        <v>0.0349828810343554</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.06025781873080006</v>
+        <v>0.004854367001072044</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.0349828810343554</v>
+        <v>1.919841096192804</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.004854367001072044</v>
+        <v>1.891007344095159</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.949998330630643</v>
+        <v>4.631424607677255</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.891007344095159</v>
+        <v>2.157357382262076e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.631424607677255</v>
+        <v>667616364.7811277</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.157357382262076e-16</v>
+        <v>1.78271620786133e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>667616364.7811277</v>
+        <v>96.15592333229378</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.78271620786133e-07</v>
+        <v>0.0002175030800321372</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>96.15592333229378</v>
+        <v>13.86396182490341</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002175030800321372</v>
+        <v>1.027526759038907</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>13.86396182490341</v>
+        <v>0.041806144663662</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.027526759038907</v>
+        <v>3.021741652985068</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.041806144663662</v>
+        <v>0.9609991171552383</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.021741652985068</v>
+        <v>1.155042218287711</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9609991171552383</v>
+        <v>23</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.155042218287711</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.798865440562788</v>
       </c>
     </row>
@@ -5332,72 +5278,66 @@
         <v>2.732202654681941e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2990065153209853</v>
+        <v>9.703777145125239e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.915948630157426</v>
+        <v>2.818223054497116e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.703777145125239e-07</v>
+        <v>-0.0591935123403959</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.818223054497116e-06</v>
+        <v>0.03510003245173308</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0591935123403959</v>
+        <v>0.004735596199240842</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.03510003245173308</v>
+        <v>1.915604548264003</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004735596199240842</v>
+        <v>1.919389375314983</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.949370549392287</v>
+        <v>4.993709297150424</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.919389375314983</v>
+        <v>1.84831341324868e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.993709297150424</v>
+        <v>781949207.6689353</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.84831341324868e-16</v>
+        <v>1.517266703909815e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>781949207.6689353</v>
+        <v>113.0141187942287</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.517266703909815e-07</v>
+        <v>0.0002094543900448702</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>113.0141187942287</v>
+        <v>14.14593470552316</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002094543900448702</v>
+        <v>0.961706078120358</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>14.14593470552316</v>
+        <v>0.04191338779849946</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>0.961706078120358</v>
+        <v>2.904047115872777</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.04191338779849946</v>
+        <v>0.9616824761616168</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.904047115872777</v>
+        <v>1.116220897171897</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9616824761616168</v>
+        <v>23</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.116220897171897</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.755953160137415</v>
       </c>
     </row>
@@ -5412,72 +5352,66 @@
         <v>2.702149500147315e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2963539351166465</v>
+        <v>9.478123968504055e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.8923449830816432</v>
+        <v>2.802260680814211e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.478123968504055e-07</v>
+        <v>-0.05837149154656502</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.802260680814211e-06</v>
+        <v>0.03622245970325057</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05837149154656502</v>
+        <v>0.00471951888794976</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.03622245970325057</v>
+        <v>1.90616937126534</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.00471951888794976</v>
+        <v>1.823368893890036</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.937966979999269</v>
+        <v>4.83866562067157</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.823368893890036</v>
+        <v>2.863536528547276e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.83866562067157</v>
+        <v>508746358.7630512</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.863536528547276e-16</v>
+        <v>2.329326915383547e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>508746358.7630512</v>
+        <v>74.11487070307663</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.329326915383547e-07</v>
+        <v>0.0002067111213391198</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>74.11487070307663</v>
+        <v>13.75946878930298</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002067111213391198</v>
+        <v>0.9967027056112926</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>13.75946878930298</v>
+        <v>0.03913516577297695</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>0.9967027056112926</v>
+        <v>2.979200487889949</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.03913516577297695</v>
+        <v>0.9606865495696917</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.979200487889949</v>
+        <v>1.21036424275941</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9606865495696917</v>
+        <v>23</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.21036424275941</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.63973308278945</v>
       </c>
     </row>
@@ -5492,72 +5426,66 @@
         <v>2.666238361801301e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2958432289511898</v>
+        <v>9.407293802629224e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.8763251871630402</v>
+        <v>2.786622281152108e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9.407293802629224e-07</v>
+        <v>-0.05819823415670006</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.786622281152108e-06</v>
+        <v>0.03822650916723783</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05819823415670006</v>
+        <v>0.004848597744747815</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.03822650916723783</v>
+        <v>1.908750738839647</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.004848597744747815</v>
+        <v>1.750639853056686</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.934927042663072</v>
+        <v>4.294948139074892</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.750639853056686</v>
+        <v>4.990518260564174e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.294948139074892</v>
+        <v>301337156.9923805</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.990518260564174e-16</v>
+        <v>3.955907737079432e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>301337156.9923805</v>
+        <v>45.31594302742725</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.955907737079432e-07</v>
+        <v>0.0002335138939725974</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>45.31594302742725</v>
+        <v>13.95015728770701</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002335138939725974</v>
+        <v>1.118997686712936</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>13.95015728770701</v>
+        <v>0.04544341229291117</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.118997686712936</v>
+        <v>2.920770775607751</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.04544341229291117</v>
+        <v>0.9600402552838251</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.920770775607751</v>
+        <v>1.292055586696469</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9600402552838251</v>
+        <v>21</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.292055586696469</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.208764084914821</v>
       </c>
     </row>
@@ -5572,72 +5500,66 @@
         <v>2.619572538953499e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.293252657074078</v>
+        <v>9.32252456100798e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.8787998680657623</v>
+        <v>2.771271584255978e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>9.32252456100798e-07</v>
+        <v>-0.05777169559092247</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.771271584255978e-06</v>
+        <v>0.0414199829693623</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05777169559092247</v>
+        <v>0.005053178811283846</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.0414199829693623</v>
+        <v>1.847301006945778</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.005053178811283846</v>
+        <v>1.785984982008794</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.836530241248688</v>
+        <v>4.802679591794141</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.785984982008794</v>
+        <v>5.23043228377632e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.802679591794141</v>
+        <v>289946318.8167147</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.23043228377632e-16</v>
+        <v>4.051624280349302e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>289946318.8167147</v>
+        <v>43.9716520177395</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.051624280349302e-07</v>
+        <v>0.0001967935804972386</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>43.9716520177395</v>
+        <v>14.63922581720753</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001967935804972386</v>
+        <v>0.9664701234016776</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>14.63922581720753</v>
+        <v>0.04217422857740692</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0.9664701234016776</v>
+        <v>2.727937191875308</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.04217422857740692</v>
+        <v>0.9603523324638181</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.727937191875308</v>
+        <v>1.496394025104334</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9603523324638181</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.496394025104334</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.8082430632002593</v>
       </c>
     </row>
@@ -5652,72 +5574,66 @@
         <v>2.564820261951547e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2906372996807657</v>
+        <v>9.127253992032799e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.8948492912512633</v>
+        <v>2.75640362403153e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9.127253992032799e-07</v>
+        <v>-0.05689128352480795</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.75640362403153e-06</v>
+        <v>0.04450491037012761</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05689128352480795</v>
+        <v>0.005217076227757536</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04450491037012761</v>
+        <v>1.811597841116954</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005217076227757536</v>
+        <v>1.742897216163922</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.782248232767457</v>
+        <v>5.985277743532492</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.742897216163922</v>
+        <v>9.059682211338782e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.985277743532492</v>
+        <v>168699132.6010651</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>9.059682211338782e-16</v>
+        <v>6.904625749615935e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>168699132.6010651</v>
+        <v>25.7833095829807</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.904625749615935e-07</v>
+        <v>0.0001832738024240335</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>25.7833095829807</v>
+        <v>9.075783348334523</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001832738024240335</v>
+        <v>1.76004207204217</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.075783348334523</v>
+        <v>0.01509623440240716</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.76004207204217</v>
+        <v>3.047843691340094</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01509623440240716</v>
+        <v>0.9601312553782478</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.047843691340094</v>
+        <v>1.666143419896246</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9601312553782478</v>
+        <v>3</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.666143419896246</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3526922545331274</v>
       </c>
     </row>
@@ -5732,72 +5648,66 @@
         <v>2.506601654463644e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2899044576005028</v>
+        <v>8.857108071146652e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.9158047813064787</v>
+        <v>2.742084824742687e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.857108071146652e-07</v>
+        <v>-0.05607591197033163</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.742084824742687e-06</v>
+        <v>0.0461846046288853</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05607591197033163</v>
+        <v>0.005277064093974601</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.0461846046288853</v>
+        <v>1.805103759640215</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005277064093974601</v>
+        <v>1.710249325466704</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.765807151647003</v>
+        <v>4.642590522595231</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.710249325466704</v>
+        <v>1.73666917897795e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.642590522595231</v>
+        <v>88796434.04171795</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.73666917897795e-15</v>
+        <v>1.314508455397276e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>88796434.04171795</v>
+        <v>13.69330077552754</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.314508455397276e-06</v>
+        <v>0.0001876965268224679</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>13.69330077552754</v>
+        <v>8.394075704309488</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001876965268224679</v>
+        <v>1.945252695297071</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.394075704309488</v>
+        <v>0.01322519242885115</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.945252695297071</v>
+        <v>2.964124465309691</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01322519242885115</v>
+        <v>0.9607416728442431</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.964124465309691</v>
+        <v>1.698812969254237</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9607416728442431</v>
+        <v>3</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.698812969254237</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1974366037268652</v>
       </c>
     </row>
@@ -5812,72 +5722,66 @@
         <v>2.448697549193845e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2916910097732184</v>
+        <v>8.585582688224456e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9358459894528521</v>
+        <v>2.728250094197145e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.585582688224456e-07</v>
+        <v>-0.05571600930128324</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.728250094197145e-06</v>
+        <v>0.04713996275035302</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05571600930128324</v>
+        <v>0.005326212863056688</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.04713996275035302</v>
+        <v>1.788721016051998</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.005326212863056688</v>
+        <v>1.703013750661133</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.73968540460561</v>
+        <v>4.280008312016371</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.703013750661133</v>
+        <v>2.043377622243546e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.280008312016371</v>
+        <v>74768040.8839923</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.043377622243546e-15</v>
+        <v>1.554627777699339e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>74768040.8839923</v>
+        <v>11.42301205907845</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.554627777699339e-06</v>
+        <v>0.0001628058434483197</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>11.42301205907845</v>
+        <v>9.223181365864944</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001628058434483197</v>
+        <v>1.285171955976011</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.223181365864944</v>
+        <v>0.01384941681489711</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.285171955976011</v>
+        <v>2.823329154348268</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01384941681489711</v>
+        <v>0.9594422175811782</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.823329154348268</v>
+        <v>1.703880353581627</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9594422175811782</v>
+        <v>3</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.703880353581627</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1755660790829918</v>
       </c>
     </row>
@@ -5892,72 +5796,66 @@
         <v>2.391173645946852e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2930555378949749</v>
+        <v>8.368338981891921e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9593419120033362</v>
+        <v>2.714742637956915e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.368338981891921e-07</v>
+        <v>-0.05595945509178043</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.714742637956915e-06</v>
+        <v>0.04823968375247999</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05595945509178043</v>
+        <v>0.005458281716952525</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.04823968375247999</v>
+        <v>1.777240730308246</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.005458281716952525</v>
+        <v>1.680528653661688</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.722371789514806</v>
+        <v>4.214415356267704</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.680528653661688</v>
+        <v>2.107478663030646e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.214415356267704</v>
+        <v>71339866.00864322</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.107478663030646e-15</v>
+        <v>1.620752652023311e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>71339866.00864322</v>
+        <v>10.72575234422141</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.620752652023311e-06</v>
+        <v>0.0001675896220104628</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>10.72575234422141</v>
+        <v>10.42958333553299</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001675896220104628</v>
+        <v>1.119805509012135</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.42958333553299</v>
+        <v>0.01822976367509964</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.119805509012135</v>
+        <v>2.556282372843429</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01822976367509964</v>
+        <v>0.9603835013990829</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.556282372843429</v>
+        <v>1.714980219870077</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9603835013990829</v>
+        <v>3</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.714980219870077</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1731479868286042</v>
       </c>
     </row>
@@ -5972,72 +5870,66 @@
         <v>2.334543414529009e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2934965191290966</v>
+        <v>8.09055430634766e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.9872667392548902</v>
+        <v>2.701524527885265e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.09055430634766e-07</v>
+        <v>-0.05581611904099673</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.701524527885265e-06</v>
+        <v>0.04886172002328991</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05581611904099673</v>
+        <v>0.005502072251421428</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.04886172002328991</v>
+        <v>1.768548769588108</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.005502072251421428</v>
+        <v>1.651830204647757</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.708281558044549</v>
+        <v>4.210610579202079</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.651830204647757</v>
+        <v>2.111289088692539e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.210610579202079</v>
+        <v>68447779.99032256</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.111289088692539e-15</v>
+        <v>1.684181830554022e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>68447779.99032256</v>
+        <v>9.891597523233729</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.684181830554022e-06</v>
+        <v>0.000172491123826494</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>9.891597523233729</v>
+        <v>10.56794119576429</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000172491123826494</v>
+        <v>1.135400763764325</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.56794119576429</v>
+        <v>0.01926404693938906</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.135400763764325</v>
+        <v>2.455547463570279</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01926404693938906</v>
+        <v>0.9592527407767998</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.455547463570279</v>
+        <v>1.74067238841998</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9592527407767998</v>
+        <v>8</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.74067238841998</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1699495067197783</v>
       </c>
     </row>
@@ -6052,72 +5944,66 @@
         <v>2.281358199316243e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.2976568046159737</v>
+        <v>7.771887192452171e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.009054262247497</v>
+        <v>2.688712505955411e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>7.771887192452171e-07</v>
+        <v>-0.05519753478604384</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.688712505955411e-06</v>
+        <v>0.04899507407982313</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05519753478604384</v>
+        <v>0.005446468630165457</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.04899507407982313</v>
+        <v>1.764828910742456</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.005446468630165457</v>
+        <v>1.659557490499612</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.70596521987207</v>
+        <v>4.205467847202472</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.659557490499612</v>
+        <v>2.116455901601777e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.205467847202472</v>
+        <v>68390202.27652721</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.116455901601777e-15</v>
+        <v>1.681575356611107e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>68390202.27652721</v>
+        <v>9.899129379853669</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.681575356611107e-06</v>
+        <v>0.0001675537946480885</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>9.899129379853669</v>
+        <v>9.301285806617031</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001675537946480885</v>
+        <v>1.225794984931969</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.301285806617031</v>
+        <v>0.01449573519319797</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.225794984931969</v>
+        <v>2.680236252186191</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01449573519319797</v>
+        <v>0.9585602057852138</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.680236252186191</v>
+        <v>1.70838880395328</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9585602057852138</v>
+        <v>8</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.70838880395328</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.161025839374216</v>
       </c>
     </row>
@@ -6132,72 +6018,66 @@
         <v>2.231515969868829e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3068581256340988</v>
+        <v>7.486008558664806e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.021354154628389</v>
+        <v>2.676333222652753e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>7.486008558664806e-07</v>
+        <v>-0.05454546462834456</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.676333222652753e-06</v>
+        <v>0.0494746259696706</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05454546462834456</v>
+        <v>0.005422405158657548</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.0494746259696706</v>
+        <v>1.758220972765415</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.005422405158657548</v>
+        <v>1.646231866901897</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.703086846865415</v>
+        <v>4.185282437987293</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.646231866901897</v>
+        <v>2.136920255441032e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.185282437987293</v>
+        <v>68394524.00837727</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.136920255441032e-15</v>
+        <v>1.683453742253159e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>68394524.00837727</v>
+        <v>9.996108893960244</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.683453742253159e-06</v>
+        <v>0.0001787990197918032</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>9.996108893960244</v>
+        <v>8.361509753097453</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001787990197918032</v>
+        <v>1.572942741521568</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.361509753097453</v>
+        <v>0.01250070581768003</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.572942741521568</v>
+        <v>2.809131981705321</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01250070581768003</v>
+        <v>0.9579791329320532</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.809131981705321</v>
+        <v>1.715953747579593</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9579791329320532</v>
+        <v>8</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.715953747579593</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1503998724707029</v>
       </c>
     </row>
@@ -6212,72 +6092,66 @@
         <v>2.183465904234381e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3203664963367915</v>
+        <v>7.231715128077113e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.025710841763774</v>
+        <v>2.664370804015088e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>7.231715128077113e-07</v>
+        <v>-0.05381099807100905</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.664370804015088e-06</v>
+        <v>0.05042471292356069</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05381099807100905</v>
+        <v>0.005437870067365143</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.05042471292356069</v>
+        <v>1.755501537466272</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.005437870067365143</v>
+        <v>1.62988099897722</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.700875992473534</v>
+        <v>4.136868541006122</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.62988099897722</v>
+        <v>2.187229814055481e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.136868541006122</v>
+        <v>67270255.66368489</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.187229814055481e-15</v>
+        <v>1.712841873714212e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>67270255.66368489</v>
+        <v>9.897843293290769</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.712841873714212e-06</v>
+        <v>0.0001755853359330496</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>9.897843293290769</v>
+        <v>9.231142554989134</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001755853359330496</v>
+        <v>1.355277927037825</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.231142554989134</v>
+        <v>0.01496232756436873</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.355277927037825</v>
+        <v>2.764259247043652</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01496232756436873</v>
+        <v>0.9582844256533005</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.764259247043652</v>
+        <v>1.756132014077909</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9582844256533005</v>
+        <v>8</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.756132014077909</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1521656419226303</v>
       </c>
     </row>
@@ -6292,72 +6166,66 @@
         <v>2.135510220755547e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.337549143175785</v>
+        <v>7.027862610320567e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.023661302954543</v>
+        <v>2.652832502556029e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>7.027862610320567e-07</v>
+        <v>-0.05307053219494538</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.652832502556029e-06</v>
+        <v>0.05218225308523217</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05307053219494538</v>
+        <v>0.005539399858388947</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.05218225308523217</v>
+        <v>1.755770487260049</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.005539399858388947</v>
+        <v>1.612387091118929</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.700202461503492</v>
+        <v>4.027183264267472</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.612387091118929</v>
+        <v>2.307996102033495e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.027183264267472</v>
+        <v>65077408.93216454</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.307996102033495e-15</v>
+        <v>1.777619361497807e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>65077408.93216454</v>
+        <v>9.774523097714475</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.777619361497807e-06</v>
+        <v>0.0001742882981450845</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>9.774523097714475</v>
+        <v>10.86057376764442</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001742882981450845</v>
+        <v>1.094450173837457</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.86057376764442</v>
+        <v>0.02055766424671126</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.094450173837457</v>
+        <v>2.52069929554052</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02055766424671126</v>
+        <v>0.9595762696668882</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.52069929554052</v>
+        <v>1.745835874317013</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9595762696668882</v>
+        <v>8</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.745835874317013</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1605113088167981</v>
       </c>
     </row>
@@ -6372,72 +6240,66 @@
         <v>2.084232681485645e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.354982520191017</v>
+        <v>6.919217364903374e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.023129167038006</v>
+        <v>2.641683168525913e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>6.919217364903374e-07</v>
+        <v>-0.05262591636725465</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.641683168525913e-06</v>
+        <v>0.05518709323181305</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05262591636725465</v>
+        <v>0.005815076265540902</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.05518709323181305</v>
+        <v>1.757102384167453</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.005815076265540902</v>
+        <v>1.604811710835939</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.696098992635533</v>
+        <v>3.886558784964325</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.604811710835939</v>
+        <v>2.478034657495302e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.886558784964325</v>
+        <v>61304198.54306816</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.478034657495302e-15</v>
+        <v>1.885815154037163e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>61304198.54306816</v>
+        <v>9.312961642785405</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.885815154037163e-06</v>
+        <v>0.0001763079367794299</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>9.312961642785405</v>
+        <v>10.99199917188413</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001763079367794299</v>
+        <v>1.080036828450198</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.99199917188413</v>
+        <v>0.02130223822740717</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.080036828450198</v>
+        <v>2.420851314120523</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02130223822740717</v>
+        <v>0.959113129598872</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.420851314120523</v>
+        <v>1.715684184563409</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.959113129598872</v>
+        <v>8</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.715684184563409</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1612312790860629</v>
       </c>
     </row>
@@ -6452,72 +6314,66 @@
         <v>2.026546693996863e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3682545505649343</v>
+        <v>6.806360233690622e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.035059265848166</v>
+        <v>2.630926409334253e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.806360233690622e-07</v>
+        <v>-0.05181231134860326</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.630926409334253e-06</v>
+        <v>0.05939912288341273</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05181231134860326</v>
+        <v>0.00621208614902503</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.05939912288341273</v>
+        <v>1.759332128016732</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.00621208614902503</v>
+        <v>1.618286059621096</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.696486672537216</v>
+        <v>3.823617645560838</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.618286059621096</v>
+        <v>2.560288724073938e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.823617645560838</v>
+        <v>59697973.52419268</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.560288724073938e-15</v>
+        <v>1.939971521928652e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>59697973.52419268</v>
+        <v>9.124479958537579</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.939971521928652e-06</v>
+        <v>0.0001727477043740379</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>9.124479958537579</v>
+        <v>9.891444546624719</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001727477043740379</v>
+        <v>1.169709248161668</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.891444546624719</v>
+        <v>0.01690175203847975</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.169709248161668</v>
+        <v>2.611796476921839</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01690175203847975</v>
+        <v>0.9590186756235168</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.611796476921839</v>
+        <v>1.721107039344498</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9590186756235168</v>
+        <v>8</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.721107039344498</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1556581647134465</v>
       </c>
     </row>
@@ -6532,72 +6388,66 @@
         <v>1.96424078167946e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3794204793840265</v>
+        <v>6.60852091527587e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.053896327832603</v>
+        <v>2.620747952964395e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.60852091527587e-07</v>
+        <v>-0.05013953852526308</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.620747952964395e-06</v>
+        <v>0.06396286275162666</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05013953852526308</v>
+        <v>0.006604298624455561</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.06396286275162666</v>
+        <v>1.692872645861087</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.006604298624455561</v>
+        <v>1.579446996892547</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.616522628786175</v>
+        <v>3.702142536533206</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.579446996892547</v>
+        <v>2.731062171158499e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.702142536533206</v>
+        <v>56615378.97773176</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.731062171158499e-15</v>
+        <v>2.00254425378219e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>56615378.97773176</v>
+        <v>8.75387668186449</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.00254425378219e-06</v>
+        <v>0.0001868303420351115</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>8.75387668186449</v>
+        <v>8.969900658563235</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001868303420351115</v>
+        <v>1.449421505718647</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.969900658563235</v>
+        <v>0.01503220450299339</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.449421505718647</v>
+        <v>2.710378432360426</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01503220450299339</v>
+        <v>0.9571440517163026</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.710378432360426</v>
+        <v>1.76562374915877</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9571440517163026</v>
+        <v>9</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.76562374915877</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1480531614989826</v>
       </c>
     </row>
@@ -6612,72 +6462,66 @@
         <v>1.899853150851779e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.3898862843234474</v>
+        <v>6.413544335345122e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.073978812207645</v>
+        <v>2.611187400869435e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.413544335345122e-07</v>
+        <v>-0.04898995818606678</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.611187400869435e-06</v>
+        <v>0.06755784861913737</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04898995818606678</v>
+        <v>0.006963770094683533</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.06755784861913737</v>
+        <v>1.67992952621494</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.006963770094683533</v>
+        <v>1.501871368192262</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.599108064940622</v>
+        <v>3.745783086444988</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.501871368192262</v>
+        <v>3.165207124526443e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.745783086444988</v>
+        <v>48579010.84845403</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.165207124526443e-15</v>
+        <v>2.326006085408473e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>48579010.84845403</v>
+        <v>7.469636531093536</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.326006085408473e-06</v>
+        <v>0.0002124868333458283</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>7.469636531093536</v>
+        <v>9.258080342834965</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0002124868333458283</v>
+        <v>1.57304317984018</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.258080342834965</v>
+        <v>0.01821268243136506</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.57304317984018</v>
+        <v>2.669332023962125</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01821268243136506</v>
+        <v>0.9574575811052835</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.669332023962125</v>
+        <v>1.793247668984871</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9574575811052835</v>
+        <v>9</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.793247668984871</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1438553723916637</v>
       </c>
     </row>
@@ -6692,72 +6536,66 @@
         <v>1.833764712729194e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.3960022415573228</v>
+        <v>6.260983462895171e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.10630448303069</v>
+        <v>2.602040325236286e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6.260983462895171e-07</v>
+        <v>-0.04919612116156946</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.602040325236286e-06</v>
+        <v>0.07033999254753905</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04919612116156946</v>
+        <v>0.007367722044776426</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.07033999254753905</v>
+        <v>1.673768296272759</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.007367722044776426</v>
+        <v>1.46573694844403</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.591730368017715</v>
+        <v>3.700757319011967</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.46573694844403</v>
+        <v>3.662213588285681e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.700757319011967</v>
+        <v>42325970.78283744</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.662213588285681e-15</v>
+        <v>2.643090181933912e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>42325970.78283744</v>
+        <v>6.560810974331186</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.643090181933912e-06</v>
+        <v>0.0002140269592322465</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>6.560810974331186</v>
+        <v>10.54292345268489</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0002140269592322465</v>
+        <v>1.337093377005849</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.54292345268489</v>
+        <v>0.02378978888071847</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.337093377005849</v>
+        <v>2.59775531490846</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02378978888071847</v>
+        <v>0.955575156731699</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.59775531490846</v>
+        <v>1.823334446795253</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.955575156731699</v>
+        <v>9</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.823334446795253</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1429872134612656</v>
       </c>
     </row>
@@ -6772,72 +6610,66 @@
         <v>1.767583606102377e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3970465454852204</v>
+        <v>6.060529243332549e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.158950229964849</v>
+        <v>2.593118462097554e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6.060529243332549e-07</v>
+        <v>-0.04992828438932568</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.593118462097554e-06</v>
+        <v>0.07252629530091378</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04992828438932568</v>
+        <v>0.007751858908842407</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.07252629530091378</v>
+        <v>1.688923575454223</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.007751858908842407</v>
+        <v>1.660407408753851</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.608687007297548</v>
+        <v>3.523411968089031</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.660407408753851</v>
+        <v>3.721738652670104e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.523411968089031</v>
+        <v>40895455.04059652</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.721738652670104e-15</v>
+        <v>2.747442668420714e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>40895455.04059652</v>
+        <v>6.224378053092855</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.747442668420714e-06</v>
+        <v>0.0001955053710495024</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>6.224378053092855</v>
+        <v>11.68259000141203</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001955053710495024</v>
+        <v>1.094276215288822</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>11.68259000141203</v>
+        <v>0.02668314179354476</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.094276215288822</v>
+        <v>2.529139386164762</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02668314179354476</v>
+        <v>0.9539924787634289</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.529139386164762</v>
+        <v>1.781579612681609</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9539924787634289</v>
+        <v>6</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.781579612681609</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1499110777360533</v>
       </c>
     </row>
@@ -6852,72 +6684,66 @@
         <v>1.704496055462735e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3979688213174214</v>
+        <v>5.807146004698816e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.222722674165639</v>
+        <v>2.584396282573662e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.807146004698816e-07</v>
+        <v>-0.05054496608691139</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.584396282573662e-06</v>
+        <v>0.07420911987346103</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05054496608691139</v>
+        <v>0.008059991053099728</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.07420911987346103</v>
+        <v>1.710584063835474</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.008059991053099728</v>
+        <v>1.551155134381532</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.634411054612249</v>
+        <v>3.571071007306555</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.551155134381532</v>
+        <v>3.623061880426602e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.571071007306555</v>
+        <v>41873890.85448155</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.623061880426602e-15</v>
+        <v>2.700690889451357e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>41873890.85448155</v>
+        <v>6.352759072513535</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.700690889451357e-06</v>
+        <v>0.0001888884027855841</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>6.352759072513535</v>
+        <v>11.907397424298</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001888884027855841</v>
+        <v>1.047944729557329</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>11.907397424298</v>
+        <v>0.02678175250111321</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.047944729557329</v>
+        <v>2.422113204468946</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02678175250111321</v>
+        <v>0.9531764141757869</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.422113204468946</v>
+        <v>1.771321545220712</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9531764141757869</v>
+        <v>6</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.771321545220712</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1578679080994934</v>
       </c>
     </row>
@@ -6932,72 +6758,66 @@
         <v>1.646825145003148e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.4039174864679613</v>
+        <v>5.519678081819389e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.283320121847606</v>
+        <v>2.575904482181025e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.519678081819389e-07</v>
+        <v>-0.05080710308143315</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.575904482181025e-06</v>
+        <v>0.07526560693098859</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05080710308143315</v>
+        <v>0.008244107472709783</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.07526560693098859</v>
+        <v>1.709364339912668</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.008244107472709783</v>
+        <v>1.570403453137952</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.639170677345495</v>
+        <v>3.802431728233735</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.570403453137952</v>
+        <v>3.195581314181285e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.802431728233735</v>
+        <v>47220812.29444522</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.195581314181285e-15</v>
+        <v>2.388275610950907e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>47220812.29444522</v>
+        <v>7.125523555756519</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.388275610950907e-06</v>
+        <v>0.0001818746706938837</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>7.125523555756519</v>
+        <v>10.74245490368502</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001818746706938837</v>
+        <v>1.133791354920876</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.74245490368502</v>
+        <v>0.02098839835489593</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.133791354920876</v>
+        <v>2.574968494907246</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.02098839835489593</v>
+        <v>0.9527247129803661</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.574968494907246</v>
+        <v>1.770806760579783</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9527247129803661</v>
+        <v>13</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.770806760579783</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1563023706389092</v>
       </c>
     </row>
@@ -7012,72 +6832,66 @@
         <v>1.595640064689555e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.4182525850669905</v>
+        <v>5.225988707957199e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.328446114515528</v>
+        <v>2.567674949573751e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.225988707957199e-07</v>
+        <v>-0.05070351448761676</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.567674949573751e-06</v>
+        <v>0.07586386267739292</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05070351448761676</v>
+        <v>0.008323997846167105</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.07586386267739292</v>
+        <v>1.723406223278493</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.008323997846167105</v>
+        <v>1.689394263999187</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.65743540637356</v>
+        <v>3.869238075337218</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.689394263999187</v>
+        <v>3.086184016272658e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.869238075337218</v>
+        <v>49600341.47578926</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.086184016272658e-15</v>
+        <v>2.288257382007021e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>49600341.47578926</v>
+        <v>7.592611012459787</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.288257382007021e-06</v>
+        <v>0.0001865349889648147</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>7.592611012459787</v>
+        <v>9.084840530566792</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001865349889648147</v>
+        <v>1.399553854120965</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.084840530566792</v>
+        <v>0.01539553986305684</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.399553854120965</v>
+        <v>2.723050437065967</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01539553986305684</v>
+        <v>0.9531094987265618</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.723050437065967</v>
+        <v>1.734912234809902</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9531094987265618</v>
+        <v>13</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.734912234809902</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1473901640814035</v>
       </c>
     </row>
@@ -7092,72 +6906,66 @@
         <v>1.550883629770558e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.4423134008455025</v>
+        <v>4.944953065354618e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.350504826920072</v>
+        <v>2.559733840073003e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.944953065354618e-07</v>
+        <v>-0.0502443822035146</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.559733840073003e-06</v>
+        <v>0.0762511674292501</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.0502443822035146</v>
+        <v>0.00833690127746391</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.0762511674292501</v>
+        <v>1.736287309128947</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.00833690127746391</v>
+        <v>1.633230353143402</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.672860059408004</v>
+        <v>3.836969435736027</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.633230353143402</v>
+        <v>3.138311467928156e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.836969435736027</v>
+        <v>50216230.38207986</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.138311467928156e-15</v>
+        <v>2.279598891721481e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>50216230.38207986</v>
+        <v>7.913785232167012</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.279598891721481e-06</v>
+        <v>0.0001965358962830119</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>7.913785232167012</v>
+        <v>9.024951714076737</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001965358962830119</v>
+        <v>1.518093593269349</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.024951714076737</v>
+        <v>0.01600780029463915</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.518093593269349</v>
+        <v>2.733721341752971</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01600780029463915</v>
+        <v>0.9520012669282379</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.733721341752971</v>
+        <v>1.727602869737919</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9520012669282379</v>
+        <v>13</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.727602869737919</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1411370275878703</v>
       </c>
     </row>
@@ -7172,72 +6980,66 @@
         <v>1.511630663509727e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.4759066861109907</v>
+        <v>4.688469097180449e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.346832928191169</v>
+        <v>2.552099413581059e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.688469097180449e-07</v>
+        <v>-0.04944492377953507</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.552099413581059e-06</v>
+        <v>0.07671139088443465</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.04944492377953507</v>
+        <v>0.008328037054208438</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.07671139088443465</v>
+        <v>1.742826431904013</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.008328037054208438</v>
+        <v>1.590496994878289</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.67880452353236</v>
+        <v>3.761794044734293</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.590496994878289</v>
+        <v>3.264996304968703e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.761794044734293</v>
+        <v>48652154.38091474</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.264996304968703e-15</v>
+        <v>2.355928987798926e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>48652154.38091474</v>
+        <v>7.728351144819952</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.355928987798926e-06</v>
+        <v>0.0001889430086516589</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>7.728351144819952</v>
+        <v>10.71911687893338</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001889430086516589</v>
+        <v>1.178679812526436</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>10.71911687893338</v>
+        <v>0.02170945092401144</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.178679812526436</v>
+        <v>2.618879075579385</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02170945092401144</v>
+        <v>0.9531115510851528</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.618879075579385</v>
+        <v>1.774717500650313</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9531115510851528</v>
+        <v>8</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.774717500650313</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1458296312755338</v>
       </c>
     </row>
@@ -7614,7 +7416,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.347665986943011</v>
+        <v>1.357404385317662</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.296400572242933</v>
@@ -7703,7 +7505,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.385900950447002</v>
+        <v>1.390837753636631</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.128905096193745</v>
@@ -7792,7 +7594,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.414880878864231</v>
+        <v>1.416162389012782</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.090937857767656</v>
@@ -7881,7 +7683,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.43816544737179</v>
+        <v>1.433617216068589</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.231497744291615</v>
@@ -7970,7 +7772,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.42574730455926</v>
+        <v>1.420022566816216</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.145101327065034</v>
@@ -8059,7 +7861,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.423587253669914</v>
+        <v>1.424242316528826</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.336604829893783</v>
@@ -8148,7 +7950,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.427270167646888</v>
+        <v>1.425917947439804</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.356791879615038</v>
@@ -8237,7 +8039,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.444831317213376</v>
+        <v>1.436781940588298</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.333508049063115</v>
@@ -8326,7 +8128,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.462291042259005</v>
+        <v>1.452110667030736</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.30311567451256</v>
@@ -8415,7 +8217,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.490622025172827</v>
+        <v>1.479658991974863</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.242767997453434</v>
@@ -8504,7 +8306,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.475111465177445</v>
+        <v>1.463223884021959</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.229265049856653</v>
@@ -8593,7 +8395,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.47174412946589</v>
+        <v>1.455646628371091</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.125899832513678</v>
@@ -8682,7 +8484,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.468691534060339</v>
+        <v>1.446029197382545</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.2017500371278</v>
@@ -8771,7 +8573,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.467119535660665</v>
+        <v>1.44277735790933</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.184602646125266</v>
@@ -8860,7 +8662,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.481903090745835</v>
+        <v>1.448273497422433</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.133660345323263</v>
@@ -8949,7 +8751,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.477832467083265</v>
+        <v>1.445945140311578</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.213910366107005</v>
@@ -9038,7 +8840,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.472545984601048</v>
+        <v>1.446513437594107</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.165230722157196</v>
@@ -9127,7 +8929,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.466287981050065</v>
+        <v>1.440617448928033</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.135228420721596</v>
@@ -9216,7 +9018,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.490748507379253</v>
+        <v>1.461601263057814</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.159044334889908</v>
@@ -9305,7 +9107,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.577456038467175</v>
+        <v>1.530179202384812</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.936054834986054</v>
@@ -9394,7 +9196,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.670910899361043</v>
+        <v>1.610038882264367</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.599281409571649</v>
@@ -9483,7 +9285,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.673400270809497</v>
+        <v>1.620337549084604</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.31374045771297</v>
@@ -9572,7 +9374,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.687258709924073</v>
+        <v>1.634216963431135</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.400720637071621</v>
@@ -9661,7 +9463,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.694516192270941</v>
+        <v>1.645536494491179</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.381464374481177</v>
@@ -9750,7 +9552,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.699775726006481</v>
+        <v>1.65256170920256</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.392127750254353</v>
@@ -9839,7 +9641,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.758939606496546</v>
+        <v>1.701072842257924</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.44360871189782</v>
@@ -9928,7 +9730,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.770684113568965</v>
+        <v>1.718195042938094</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.30817652070056</v>
@@ -10017,7 +9819,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.776400052556786</v>
+        <v>1.730845606661391</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.712307020533189</v>
@@ -10106,7 +9908,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.721240754887835</v>
+        <v>1.691822300589192</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.314117976370788</v>
@@ -10195,7 +9997,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.726377417874266</v>
+        <v>1.707254554111686</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.259660906997989</v>
@@ -10284,7 +10086,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.733524384205405</v>
+        <v>1.710205227583929</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.273167823216984</v>
@@ -10373,7 +10175,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.738979561160163</v>
+        <v>1.713371618410396</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.269606439565501</v>
@@ -10462,7 +10264,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.74538586040103</v>
+        <v>1.721958827900908</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.27258607130111</v>
@@ -10551,7 +10353,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.750654851500643</v>
+        <v>1.725496446050574</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.393989025666194</v>
@@ -10640,7 +10442,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.747896976147966</v>
+        <v>1.722509598495424</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.346899485052502</v>
@@ -10729,7 +10531,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.747286736010292</v>
+        <v>1.715777116672601</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.314768603818322</v>
@@ -10818,7 +10620,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.715741815018088</v>
+        <v>1.685615697120971</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.355383915167052</v>
@@ -10907,7 +10709,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.702968679839181</v>
+        <v>1.678981506561096</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.425188330742658</v>
@@ -10996,7 +10798,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.699491921305905</v>
+        <v>1.670304770615195</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.385121107080439</v>
@@ -11085,7 +10887,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.705275631722547</v>
+        <v>1.675906637901632</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.420265429361832</v>
@@ -11174,7 +10976,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.70865386338691</v>
+        <v>1.681979742219275</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.45735840607393</v>
@@ -11263,7 +11065,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.715818380360327</v>
+        <v>1.685408105404004</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.352693725980708</v>
@@ -11352,7 +11154,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.721918885069361</v>
+        <v>1.689457906227574</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.351886759154246</v>
@@ -11441,7 +11243,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.720307678802681</v>
+        <v>1.687583891529631</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.325477599951986</v>
@@ -11530,7 +11332,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.674147836974266</v>
+        <v>1.653985275610529</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.414196799862343</v>
@@ -11619,7 +11421,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.630533984723839</v>
+        <v>1.619924162908024</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.376132660790724</v>
@@ -11708,7 +11510,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.630450765152946</v>
+        <v>1.619409101339011</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.511572835546901</v>
@@ -11797,7 +11599,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.581982673646814</v>
+        <v>1.576409899498146</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.499912211576498</v>
@@ -11886,7 +11688,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.568965452083731</v>
+        <v>1.564758425133607</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.469672970621221</v>
@@ -11975,7 +11777,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.529990187201708</v>
+        <v>1.531823986318766</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.466644802079506</v>
@@ -12064,7 +11866,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.53066097787775</v>
+        <v>1.535433861048994</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.47826190846069</v>
@@ -12153,7 +11955,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.546527250337648</v>
+        <v>1.546834432867169</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.244893641064161</v>
@@ -12242,7 +12044,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.53887763212967</v>
+        <v>1.536744662267447</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.48374222540451</v>
@@ -12331,7 +12133,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.525921632750509</v>
+        <v>1.52705192893943</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.491795172783319</v>
@@ -12420,7 +12222,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.506738186966919</v>
+        <v>1.507818597191158</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.392965125550658</v>
@@ -12509,7 +12311,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.470873837984794</v>
+        <v>1.471169925512021</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.460348961135633</v>
@@ -12598,7 +12400,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.424546004921682</v>
+        <v>1.424687034555541</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.507144895287059</v>
@@ -12687,7 +12489,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.406522130182101</v>
+        <v>1.407718469077991</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.45217549804041</v>
@@ -12776,7 +12578,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.419215451938899</v>
+        <v>1.419214478121057</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.542249686514529</v>
@@ -12865,7 +12667,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.440738978367468</v>
+        <v>1.431600940875246</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.396013272967637</v>
@@ -12954,7 +12756,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.459235318312546</v>
+        <v>1.441987355596429</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.58219254291716</v>
@@ -13043,7 +12845,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.435953829946758</v>
+        <v>1.419200029995432</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.477264086872933</v>
@@ -13132,7 +12934,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.460974196325219</v>
+        <v>1.436356471284246</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.368638841252149</v>
@@ -13221,7 +13023,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.4757681446093</v>
+        <v>1.444443535652104</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.197095509340102</v>
@@ -13310,7 +13112,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.499254284617173</v>
+        <v>1.474848601091131</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.49781297963573</v>
@@ -13399,7 +13201,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.505433258670158</v>
+        <v>1.483407831189154</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.640038627262067</v>
@@ -13488,7 +13290,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.52865826280125</v>
+        <v>1.51074537893316</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.719230209181522</v>
@@ -13577,7 +13379,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.548818999913911</v>
+        <v>1.534155567161225</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.463573506570029</v>
@@ -13666,7 +13468,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.57147295769602</v>
+        <v>1.557460349215949</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.340738295251088</v>
@@ -13755,7 +13557,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.582674242639582</v>
+        <v>1.573050568060659</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.801120313441168</v>
@@ -13844,7 +13646,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.636643444334001</v>
+        <v>1.622421417232074</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.557891595226306</v>
@@ -13933,7 +13735,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.674288830871866</v>
+        <v>1.650608454787567</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.718754525314167</v>
@@ -14022,7 +13824,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.674887328114231</v>
+        <v>1.659571677483834</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.575835993329458</v>
@@ -14111,7 +13913,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.666799542725055</v>
+        <v>1.65596267957573</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.688204166846397</v>
@@ -14200,7 +14002,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.684887045571112</v>
+        <v>1.677467215223477</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.748139317424939</v>
@@ -14289,7 +14091,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.693878383798498</v>
+        <v>1.692500097893721</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.564400206153566</v>
@@ -14575,7 +14377,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.448807997914978</v>
+        <v>1.462777403855982</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.385924824537435</v>
@@ -14664,7 +14466,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.465526500806679</v>
+        <v>1.47819540129058</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.325078284396495</v>
@@ -14753,7 +14555,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.479422608522854</v>
+        <v>1.488143115029561</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.300668716641319</v>
@@ -14842,7 +14644,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.483029452996873</v>
+        <v>1.483778038791164</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.227693215587063</v>
@@ -14931,7 +14733,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.479652854057878</v>
+        <v>1.475034422889084</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.103065618076201</v>
@@ -15020,7 +14822,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.488596471143417</v>
+        <v>1.480821186550779</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.51832603608903</v>
@@ -15109,7 +14911,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.514048002927008</v>
+        <v>1.497233896467261</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.579473247267735</v>
@@ -15198,7 +15000,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.525131474636355</v>
+        <v>1.495612631369744</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.285578836746525</v>
@@ -15287,7 +15089,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.534920933511204</v>
+        <v>1.498682498508526</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.305244065761864</v>
@@ -15376,7 +15178,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.578732826148142</v>
+        <v>1.539255190460099</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.474693827713521</v>
@@ -15465,7 +15267,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.582979898581938</v>
+        <v>1.537935251877384</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.575025821896219</v>
@@ -15554,7 +15356,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.584724440484358</v>
+        <v>1.533920894948237</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.414700898317606</v>
@@ -15643,7 +15445,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.583008667234805</v>
+        <v>1.536283662945084</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.564714843759718</v>
@@ -15732,7 +15534,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.580319938474265</v>
+        <v>1.531671644083774</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.460804460433453</v>
@@ -15821,7 +15623,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.580777830211037</v>
+        <v>1.52352866820948</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.460760623289428</v>
@@ -15910,7 +15712,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.589986172708213</v>
+        <v>1.530267810006848</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.532239967689172</v>
@@ -15999,7 +15801,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.585839730279872</v>
+        <v>1.52334286753215</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.455749191733855</v>
@@ -16088,7 +15890,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.562156850410688</v>
+        <v>1.51132613898026</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.395549498708875</v>
@@ -16177,7 +15979,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.568217463519428</v>
+        <v>1.519468347026318</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.528443965924148</v>
@@ -16266,7 +16068,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.596888756333655</v>
+        <v>1.543890152081199</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.498697895440828</v>
@@ -16355,7 +16157,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.630177869918791</v>
+        <v>1.572465058101503</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.980281148158769</v>
@@ -16444,7 +16246,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.622446963706738</v>
+        <v>1.572970042093158</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.864407813417974</v>
@@ -16533,7 +16335,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.624843777825061</v>
+        <v>1.578246824231127</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.004165629026312</v>
@@ -16622,7 +16424,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.626801311027067</v>
+        <v>1.581139190501527</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.85643987052895</v>
@@ -16711,7 +16513,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.629801971126108</v>
+        <v>1.579612415664271</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.131375159810144</v>
@@ -16800,7 +16602,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.633923065088004</v>
+        <v>1.582378704121109</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.581642668021184</v>
@@ -16889,7 +16691,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.626931292387855</v>
+        <v>1.581460037408946</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.032870889750631</v>
@@ -16978,7 +16780,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.579976983793638</v>
+        <v>1.550812575085267</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.67999989736093</v>
@@ -17067,7 +16869,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.59346834394339</v>
+        <v>1.571701850324259</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.464297952390686</v>
@@ -17156,7 +16958,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.601653862750166</v>
+        <v>1.589732304730666</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.667466483032521</v>
@@ -17245,7 +17047,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.609301996955145</v>
+        <v>1.601258643263582</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.660862263100396</v>
@@ -17334,7 +17136,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.618734082522782</v>
+        <v>1.61311834905532</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.428515903456216</v>
@@ -17423,7 +17225,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.64935365206751</v>
+        <v>1.640580592374198</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.643684158289713</v>
@@ -17512,7 +17314,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.651767085893681</v>
+        <v>1.642667494683691</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.771500236195391</v>
@@ -17601,7 +17403,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.65568867299143</v>
+        <v>1.644945399770078</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.786314929083074</v>
@@ -17690,7 +17492,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.66070889308294</v>
+        <v>1.654541659569475</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.819286910510802</v>
@@ -17779,7 +17581,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.661694758210089</v>
+        <v>1.653739832023046</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.676497817756523</v>
@@ -17868,7 +17670,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.665731509926318</v>
+        <v>1.649970734222938</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.630167719795799</v>
@@ -17957,7 +17759,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.664379819848799</v>
+        <v>1.65931335389409</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.82371570093203</v>
@@ -18046,7 +17848,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.655681298301424</v>
+        <v>1.654978112176812</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.689734140447698</v>
@@ -18135,7 +17937,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.659603118599575</v>
+        <v>1.662562833293504</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.715489148299324</v>
@@ -18224,7 +18026,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.681590206975198</v>
+        <v>1.672906645226747</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.667012249048031</v>
@@ -18313,7 +18115,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.725181513850762</v>
+        <v>1.701697026619579</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.378840038894314</v>
@@ -18402,7 +18204,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.689526098612868</v>
+        <v>1.666407597104838</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.386979085462638</v>
@@ -18491,7 +18293,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.642876289971048</v>
+        <v>1.627252044202715</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.022893514913952</v>
@@ -18580,7 +18382,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.62041889107051</v>
+        <v>1.607108392752199</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.503660557500589</v>
@@ -18669,7 +18471,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.556068278289509</v>
+        <v>1.552026887812252</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.301213913642453</v>
@@ -18758,7 +18560,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.495436431135642</v>
+        <v>1.488364080620169</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.341157905757834</v>
@@ -18847,7 +18649,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.461148219653526</v>
+        <v>1.46171218642365</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.38325058223523</v>
@@ -18936,7 +18738,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.446964507235692</v>
+        <v>1.449855725828472</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.312165341916284</v>
@@ -19025,7 +18827,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.440026504302463</v>
+        <v>1.437776670116107</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.292972825455755</v>
@@ -19114,7 +18916,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.442085431148382</v>
+        <v>1.437402942783462</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.44722271808716</v>
@@ -19203,7 +19005,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.417124004816965</v>
+        <v>1.413339283208653</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.274267713225281</v>
@@ -19292,7 +19094,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.403609335174133</v>
+        <v>1.392635629682754</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.416595056409699</v>
@@ -19381,7 +19183,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.405091259508033</v>
+        <v>1.392399561522248</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.453021691997517</v>
@@ -19470,7 +19272,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.393605455332754</v>
+        <v>1.376648083341305</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.316867417894633</v>
@@ -19559,7 +19361,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.374926524585457</v>
+        <v>1.360171666887563</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.362538253833216</v>
@@ -19648,7 +19450,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.373163718897131</v>
+        <v>1.359793054351074</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.378331299808087</v>
@@ -19737,7 +19539,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.39950054941406</v>
+        <v>1.391632319087712</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.481002958154196</v>
@@ -19826,7 +19628,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.422422523939279</v>
+        <v>1.414660306734123</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.311488025621238</v>
@@ -19915,7 +19717,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.433803103518291</v>
+        <v>1.421523734297127</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.423770202198973</v>
@@ -20004,7 +19806,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.454810551167655</v>
+        <v>1.437167440858586</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.538744803069868</v>
@@ -20093,7 +19895,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.485518411950094</v>
+        <v>1.456883382593332</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.110190843880247</v>
@@ -20182,7 +19984,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.500514857159073</v>
+        <v>1.476051354435308</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.602809817853534</v>
@@ -20271,7 +20073,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.505591169870198</v>
+        <v>1.478299047740867</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.680386888309632</v>
@@ -20360,7 +20162,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.512820216574043</v>
+        <v>1.489203321174648</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.738933532472195</v>
@@ -20449,7 +20251,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.520155968899183</v>
+        <v>1.50183520295991</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.707038166671479</v>
@@ -20538,7 +20340,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.53035968336441</v>
+        <v>1.51558349228128</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.700200426356023</v>
@@ -20627,7 +20429,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.529371920933151</v>
+        <v>1.519341622987888</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.823486220024092</v>
@@ -20716,7 +20518,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.526730679249749</v>
+        <v>1.516473672167373</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.789358190214095</v>
@@ -20805,7 +20607,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.549251608111546</v>
+        <v>1.537782486269815</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.671159961242301</v>
@@ -20894,7 +20696,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.55461940835402</v>
+        <v>1.54396970577759</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.843577498996481</v>
@@ -20983,7 +20785,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.540694117839027</v>
+        <v>1.530279405299569</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.804079732319949</v>
@@ -21072,7 +20874,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.497174833249215</v>
+        <v>1.483596201855303</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.39974271574898</v>
@@ -21161,7 +20963,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.476470579546889</v>
+        <v>1.46133916312717</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.301362821684411</v>
@@ -21250,7 +21052,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.479733227237176</v>
+        <v>1.467661682913018</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.393596669155792</v>
@@ -21536,7 +21338,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.45116030156149</v>
+        <v>1.446488488576746</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.196702519122265</v>
@@ -21625,7 +21427,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.472073428130446</v>
+        <v>1.46337652270098</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.178174027089526</v>
@@ -21714,7 +21516,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.483593258771244</v>
+        <v>1.471517329089915</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.163265890704907</v>
@@ -21803,7 +21605,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.485645719112592</v>
+        <v>1.471590004615078</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.203512689041364</v>
@@ -21892,7 +21694,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.487147122623462</v>
+        <v>1.47508851047173</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.174264939387387</v>
@@ -21981,7 +21783,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.538662896049475</v>
+        <v>1.520475735880439</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.399065131846821</v>
@@ -22070,7 +21872,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.544481977270996</v>
+        <v>1.524395576660442</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.281969663542973</v>
@@ -22159,7 +21961,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.597635445391515</v>
+        <v>1.555682298835387</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.634488274218516</v>
@@ -22248,7 +22050,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.603226796623057</v>
+        <v>1.554062456210391</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.130487039561599</v>
@@ -22337,7 +22139,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.614387275176283</v>
+        <v>1.568065787888144</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.104610389151273</v>
@@ -22426,7 +22228,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.621143517227553</v>
+        <v>1.573616258077895</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.807344461410683</v>
@@ -22515,7 +22317,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.633008561512993</v>
+        <v>1.58127274828223</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.844902875981082</v>
@@ -22604,7 +22406,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.628057593439328</v>
+        <v>1.565865800476648</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.109753485198086</v>
@@ -22693,7 +22495,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.631390965453002</v>
+        <v>1.559438922880033</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.014405938800949</v>
@@ -22782,7 +22584,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.640677778470594</v>
+        <v>1.561368688544083</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.77796877287174</v>
@@ -22871,7 +22673,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.637287225255554</v>
+        <v>1.555128239926774</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.290268188618586</v>
@@ -22960,7 +22762,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.622763424582234</v>
+        <v>1.542089008820595</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.925112370713772</v>
@@ -23049,7 +22851,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.619276542342931</v>
+        <v>1.540738334489407</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.775698444073809</v>
@@ -23138,7 +22940,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.633359039505754</v>
+        <v>1.553501542891303</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.044178211376412</v>
@@ -23227,7 +23029,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.663988124434285</v>
+        <v>1.576091170033832</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.735707137765903</v>
@@ -23316,7 +23118,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.681820281994366</v>
+        <v>1.585592047242021</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.324435488685534</v>
@@ -23405,7 +23207,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.69051124633799</v>
+        <v>1.600746401417017</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.254447616789474</v>
@@ -23494,7 +23296,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.708533272852542</v>
+        <v>1.620869200732014</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.670671227855735</v>
@@ -23583,7 +23385,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.707143595121263</v>
+        <v>1.629036488989587</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.385127047985288</v>
@@ -23672,7 +23474,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.712065642918136</v>
+        <v>1.628614878585002</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.118483003273556</v>
@@ -23761,7 +23563,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.716920786633334</v>
+        <v>1.632472192778619</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.782694143298741</v>
@@ -23850,7 +23652,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.725079696797935</v>
+        <v>1.638050177167376</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.134233488564715</v>
@@ -23939,7 +23741,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.695415094831647</v>
+        <v>1.628589180136364</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.010883764969311</v>
@@ -24028,7 +23830,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.689009730367981</v>
+        <v>1.631625045431619</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.018425401416575</v>
@@ -24117,7 +23919,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.691304754887647</v>
+        <v>1.63170642379818</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.920517901518096</v>
@@ -24206,7 +24008,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.70090312395652</v>
+        <v>1.641663552507074</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.711835787010173</v>
@@ -24295,7 +24097,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.700811404751126</v>
+        <v>1.642339489196343</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.879462334272552</v>
@@ -24384,7 +24186,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.700783269943074</v>
+        <v>1.643302574937931</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.926463583458734</v>
@@ -24473,7 +24275,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.701141967957371</v>
+        <v>1.642032496331022</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.896917684400025</v>
@@ -24562,7 +24364,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.695126859833382</v>
+        <v>1.63462244222271</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.056472534124069</v>
@@ -24651,7 +24453,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.699618124125488</v>
+        <v>1.632452464039915</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.044183493009604</v>
@@ -24740,7 +24542,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.678138819530001</v>
+        <v>1.61478116294039</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.051533096571066</v>
@@ -24829,7 +24631,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.664786928261551</v>
+        <v>1.599964943737007</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.930399926916725</v>
@@ -24918,7 +24720,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.62651688002254</v>
+        <v>1.563114249530401</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.368953330493988</v>
@@ -25007,7 +24809,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.578956534866557</v>
+        <v>1.530822820436109</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.38654472003302</v>
@@ -25096,7 +24898,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.577874933998698</v>
+        <v>1.528428842301437</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.390999769315229</v>
@@ -25185,7 +24987,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.587873819539017</v>
+        <v>1.535678540920691</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.264096566763386</v>
@@ -25274,7 +25076,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.603505845809852</v>
+        <v>1.545192138078689</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.365035896203941</v>
@@ -25363,7 +25165,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.597474029342923</v>
+        <v>1.53652974503855</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.409620094291185</v>
@@ -25452,7 +25254,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586064219181959</v>
+        <v>1.53586596374184</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.332733828218458</v>
@@ -25541,7 +25343,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.587679552361595</v>
+        <v>1.540319344374511</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.321306131320168</v>
@@ -25630,7 +25432,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.590425198929539</v>
+        <v>1.545000768759474</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.383957303892541</v>
@@ -25719,7 +25521,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.554892506737771</v>
+        <v>1.514502549067879</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.223324904431069</v>
@@ -25808,7 +25610,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.493035745557879</v>
+        <v>1.470661052739254</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.118202002992393</v>
@@ -25897,7 +25699,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.489997674616318</v>
+        <v>1.468503373175712</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.133590658155438</v>
@@ -25986,7 +25788,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.487529177524795</v>
+        <v>1.464447624033896</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.165410703628967</v>
@@ -26075,7 +25877,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.502564094915136</v>
+        <v>1.476220688926149</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.060333921637557</v>
@@ -26164,7 +25966,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.494870395121662</v>
+        <v>1.467260334641237</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.13930448548933</v>
@@ -26253,7 +26055,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.496752184468205</v>
+        <v>1.466967302448895</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.146232837048343</v>
@@ -26342,7 +26144,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.525896711806411</v>
+        <v>1.489927960289971</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.08745044707779</v>
@@ -26431,7 +26233,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.51341153599931</v>
+        <v>1.480979559360755</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.095201558736372</v>
@@ -26520,7 +26322,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.49500069805913</v>
+        <v>1.466761399252595</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.123651892860691</v>
@@ -26609,7 +26411,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.490588970627594</v>
+        <v>1.469072045296568</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.0832973102153</v>
@@ -26698,7 +26500,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.503331579992033</v>
+        <v>1.480690867284256</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.154785734838538</v>
@@ -26787,7 +26589,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.513510042302647</v>
+        <v>1.479872211113108</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.115398544516206</v>
@@ -26876,7 +26678,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.513347671773035</v>
+        <v>1.467883763114254</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.097609967829388</v>
@@ -26965,7 +26767,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.507135374941226</v>
+        <v>1.46219054569305</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.087078217441293</v>
@@ -27054,7 +26856,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.577951714986999</v>
+        <v>1.500836387308206</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.805071863599357</v>
@@ -27143,7 +26945,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.625676343199206</v>
+        <v>1.542685286765158</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.311272933016253</v>
@@ -27232,7 +27034,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.648921565310191</v>
+        <v>1.570301910886271</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.502590329647997</v>
@@ -27321,7 +27123,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.658656067732569</v>
+        <v>1.585218717888431</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.5236183424884</v>
@@ -27410,7 +27212,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.667806454257857</v>
+        <v>1.59570257886043</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.560696344393426</v>
@@ -27499,7 +27301,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.700861435882271</v>
+        <v>1.625257772675978</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.368206169741295</v>
@@ -27588,7 +27390,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.687310574275348</v>
+        <v>1.621040225857934</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.618660182861508</v>
@@ -27677,7 +27479,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.694887822784424</v>
+        <v>1.633461535938988</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.820857303897842</v>
@@ -27766,7 +27568,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.723527257070669</v>
+        <v>1.656140916003129</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.803248974298378</v>
@@ -27855,7 +27657,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.744178806645175</v>
+        <v>1.670267322930651</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.940940450482922</v>
@@ -27944,7 +27746,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.742419908150893</v>
+        <v>1.671029951862318</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.867656106623096</v>
@@ -28033,7 +27835,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.740258502314204</v>
+        <v>1.678528592284682</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.949218636616103</v>
@@ -28122,7 +27924,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.747962366102356</v>
+        <v>1.695372775013654</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.838103546870655</v>
@@ -28211,7 +28013,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.761197827558687</v>
+        <v>1.717526036628881</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.810097096977636</v>
@@ -28497,7 +28299,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.616867292774523</v>
+        <v>1.605955756432444</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.565889554984537</v>
@@ -28586,7 +28388,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.632112832674942</v>
+        <v>1.609677367815491</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.472737471530979</v>
@@ -28675,7 +28477,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.629943500178775</v>
+        <v>1.607377946213678</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.537600478889738</v>
@@ -28764,7 +28566,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.637559339826225</v>
+        <v>1.613874121385809</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.543776965533147</v>
@@ -28853,7 +28655,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.650406979393332</v>
+        <v>1.620426566998109</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.347245801887176</v>
@@ -28942,7 +28744,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.693103700544631</v>
+        <v>1.644768430746512</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.59743650295014</v>
@@ -29031,7 +28833,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.699493468335481</v>
+        <v>1.648072672944652</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.747298439689095</v>
@@ -29120,7 +28922,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.712261992721279</v>
+        <v>1.643398585214744</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.149782751215594</v>
@@ -29209,7 +29011,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.712750686520042</v>
+        <v>1.642919864265154</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.804606489414925</v>
@@ -29298,7 +29100,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.719164896287227</v>
+        <v>1.648036549435038</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.053583390226866</v>
@@ -29387,7 +29189,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.730530277604345</v>
+        <v>1.653085259944474</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.669280782789548</v>
@@ -29476,7 +29278,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.733189195232167</v>
+        <v>1.650650176507362</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.744222587865687</v>
@@ -29565,7 +29367,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.731368936399038</v>
+        <v>1.63553723360781</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.82197719316856</v>
@@ -29654,7 +29456,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.732790291000011</v>
+        <v>1.633117155310889</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.946628044323547</v>
@@ -29743,7 +29545,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.741596533287491</v>
+        <v>1.642077835450722</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.91987841518007</v>
@@ -29832,7 +29634,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.749032939899991</v>
+        <v>1.654107521862917</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.910127457252516</v>
@@ -29921,7 +29723,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.765259352198428</v>
+        <v>1.673401056673898</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.809624040437097</v>
@@ -30010,7 +29812,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.772566892773018</v>
+        <v>1.676663587221398</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.59619829950668</v>
@@ -30099,7 +29901,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.771474849891387</v>
+        <v>1.672801047227293</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.936041682042932</v>
@@ -30188,7 +29990,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.772970805778881</v>
+        <v>1.676616061919484</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.531597646134601</v>
@@ -30277,7 +30079,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.784912627315034</v>
+        <v>1.695318865792132</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.327267214497291</v>
@@ -30366,7 +30168,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.799492108154953</v>
+        <v>1.718557683562382</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.619570100958114</v>
@@ -30455,7 +30257,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.822076402288903</v>
+        <v>1.752324053700945</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.233593466300157</v>
@@ -30544,7 +30346,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.831612977807011</v>
+        <v>1.767303806789962</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.964230208087309</v>
@@ -30633,7 +30435,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.84099504449754</v>
+        <v>1.781690653962615</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.234102753382002</v>
@@ -30722,7 +30524,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.846825020563648</v>
+        <v>1.786243006731493</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.138693776318364</v>
@@ -30811,7 +30613,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.862565372842094</v>
+        <v>1.812797172427123</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.774939564388869</v>
@@ -30900,7 +30702,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.871498299742775</v>
+        <v>1.82805765184032</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.977511532962129</v>
@@ -30989,7 +30791,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.870985237208517</v>
+        <v>1.836246867298237</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.929745495709904</v>
@@ -31078,7 +30880,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.86989386793462</v>
+        <v>1.836000706775855</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.209532864880558</v>
@@ -31167,7 +30969,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.872175674214539</v>
+        <v>1.83606950164588</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.720658826187053</v>
@@ -31256,7 +31058,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.869737688836789</v>
+        <v>1.836105579825309</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.824798903288682</v>
@@ -31345,7 +31147,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.87920014441692</v>
+        <v>1.850337488359253</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.86719318562419</v>
@@ -31434,7 +31236,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.883221702662511</v>
+        <v>1.857112461281378</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.322046045668255</v>
@@ -31523,7 +31325,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.887244618374768</v>
+        <v>1.856352962156086</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.858652508462601</v>
@@ -31612,7 +31414,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.887823217254616</v>
+        <v>1.85230858008582</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.389719168747841</v>
@@ -31701,7 +31503,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.881847005854107</v>
+        <v>1.847481721219987</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.990784809505662</v>
@@ -31790,7 +31592,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.77307543475253</v>
+        <v>1.760697949988542</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.287111521820884</v>
@@ -31879,7 +31681,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.763915789197879</v>
+        <v>1.749346990653394</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.293620589821732</v>
@@ -31968,7 +31770,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.76130219187237</v>
+        <v>1.745434593260892</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.315488220808667</v>
@@ -32057,7 +31859,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.761925380277769</v>
+        <v>1.752611741939535</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.284831580232241</v>
@@ -32146,7 +31948,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.752179679885872</v>
+        <v>1.740452273999218</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.212393635641849</v>
@@ -32235,7 +32037,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.753910072546226</v>
+        <v>1.747993484262338</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.220283030315919</v>
@@ -32324,7 +32126,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.748919222993601</v>
+        <v>1.736737386161779</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.210044177928908</v>
@@ -32413,7 +32215,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.740143306917757</v>
+        <v>1.728291489417368</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.280494231103899</v>
@@ -32502,7 +32304,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.731136109353135</v>
+        <v>1.718546195799602</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.211087787739801</v>
@@ -32591,7 +32393,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.704908765429937</v>
+        <v>1.694660613475675</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.251090907249236</v>
@@ -32680,7 +32482,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.567898517491087</v>
+        <v>1.575901848083531</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.056423947523701</v>
@@ -32769,7 +32571,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.539686251613417</v>
+        <v>1.548951917291794</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.048354632687916</v>
@@ -32858,7 +32660,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.53432432243418</v>
+        <v>1.545717947028193</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.081043475085189</v>
@@ -32947,7 +32749,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.533127099943739</v>
+        <v>1.543270175626228</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.063867266893858</v>
@@ -33036,7 +32838,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.526291934196109</v>
+        <v>1.531319660919688</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.062319354223148</v>
@@ -33125,7 +32927,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.573151484088765</v>
+        <v>1.568493276934587</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.044272278130427</v>
@@ -33214,7 +33016,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.558883882238851</v>
+        <v>1.551904401952062</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.023362063133292</v>
@@ -33303,7 +33105,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.552610005014371</v>
+        <v>1.542242990222225</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.994483648880841</v>
@@ -33392,7 +33194,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.543709750096375</v>
+        <v>1.52670370465351</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.998074758637942</v>
@@ -33481,7 +33283,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.538166951557177</v>
+        <v>1.5178456571407</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.008774520603718</v>
@@ -33570,7 +33372,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.527470828593698</v>
+        <v>1.509354004905031</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.003788879514721</v>
@@ -33659,7 +33461,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.528331644964152</v>
+        <v>1.512871744816374</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.011057303011451</v>
@@ -33748,7 +33550,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.540247480510575</v>
+        <v>1.527454102710896</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.994552520449551</v>
@@ -33837,7 +33639,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.54543370940072</v>
+        <v>1.527385262813284</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.004793401431167</v>
@@ -33926,7 +33728,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.563453727100404</v>
+        <v>1.544587300523511</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.927154650899581</v>
@@ -34015,7 +33817,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.7209150123261</v>
+        <v>1.666027045139027</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.409673981795387</v>
@@ -34104,7 +33906,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.74661754880734</v>
+        <v>1.682202673244894</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.045318977000084</v>
@@ -34193,7 +33995,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.756960232579921</v>
+        <v>1.690744966654546</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.074388383451327</v>
@@ -34282,7 +34084,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.765539863530935</v>
+        <v>1.701156639991042</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.203245011231799</v>
@@ -34371,7 +34173,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.780839242429261</v>
+        <v>1.720634359439598</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.11116122005346</v>
@@ -34460,7 +34262,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.794224688096717</v>
+        <v>1.733042299725456</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.767948173436019</v>
@@ -34549,7 +34351,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.812546883259545</v>
+        <v>1.755113877340269</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.399457544957865</v>
@@ -34638,7 +34440,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.812548936147097</v>
+        <v>1.758765364982421</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.240054302604966</v>
@@ -34727,7 +34529,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.82016669627462</v>
+        <v>1.771914663779856</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.853654114123592</v>
@@ -34816,7 +34618,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.830343441006031</v>
+        <v>1.780805003847434</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.901301034972574</v>
@@ -34905,7 +34707,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.844141531149983</v>
+        <v>1.793138154724087</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>4.256141832409043</v>
@@ -34994,7 +34796,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.845371310188908</v>
+        <v>1.796648761458477</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.915659250915029</v>
@@ -35083,7 +34885,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.833529257508507</v>
+        <v>1.78627897072967</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.728724707203157</v>
@@ -35172,7 +34974,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.841057583658751</v>
+        <v>1.799464646989495</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.018701296856039</v>
@@ -35458,7 +35260,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.452772282604294</v>
+        <v>1.4707969855936</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.392279516387775</v>
@@ -35547,7 +35349,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.473553058283022</v>
+        <v>1.488817684504196</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.287596543338009</v>
@@ -35636,7 +35438,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.481045802165412</v>
+        <v>1.493808495818047</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.33098941160877</v>
@@ -35725,7 +35527,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.469562173865491</v>
+        <v>1.482923517770679</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.337380102027471</v>
@@ -35814,7 +35616,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.481308622205235</v>
+        <v>1.48716194271691</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.149773743542102</v>
@@ -35903,7 +35705,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.499615087822283</v>
+        <v>1.501787565281802</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.447576042419934</v>
@@ -35992,7 +35794,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.497880922644128</v>
+        <v>1.496994976077919</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.510923285171864</v>
@@ -36081,7 +35883,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.515683695903534</v>
+        <v>1.508610277178779</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.300797465784493</v>
@@ -36170,7 +35972,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.521604575965681</v>
+        <v>1.516468478661463</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.351742142653023</v>
@@ -36259,7 +36061,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.538770728634403</v>
+        <v>1.534461611075736</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.946774925980835</v>
@@ -36348,7 +36150,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.545413085331169</v>
+        <v>1.537239381105458</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.912885120080694</v>
@@ -36437,7 +36239,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.554009364665247</v>
+        <v>1.542530252971169</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.010697658022316</v>
@@ -36526,7 +36328,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.566213454987862</v>
+        <v>1.546715195614991</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.698162639731863</v>
@@ -36615,7 +36417,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.562103429540956</v>
+        <v>1.540660142141943</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.888883100082044</v>
@@ -36704,7 +36506,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.552096185327373</v>
+        <v>1.523005976406552</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.866258778478323</v>
@@ -36793,7 +36595,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.542338141896362</v>
+        <v>1.517918956451574</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.923693878599069</v>
@@ -36882,7 +36684,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.53473040485804</v>
+        <v>1.506992212977729</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.035064348830746</v>
@@ -36971,7 +36773,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.522726367150475</v>
+        <v>1.506100130706192</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.493369107863753</v>
@@ -37060,7 +36862,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.546228431653649</v>
+        <v>1.526028503165486</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.850546116751233</v>
@@ -37149,7 +36951,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.538364500316615</v>
+        <v>1.519368015792291</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.631991318901393</v>
@@ -37238,7 +37040,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.541715628079828</v>
+        <v>1.522751085973224</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.670826039418156</v>
@@ -37327,7 +37129,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.526008190903798</v>
+        <v>1.507611162606582</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.690045251126424</v>
@@ -37416,7 +37218,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.509579142610571</v>
+        <v>1.492067058328947</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.542210935642037</v>
@@ -37505,7 +37307,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.506582407061935</v>
+        <v>1.492524337819304</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.590810382186647</v>
@@ -37594,7 +37396,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.510484052813343</v>
+        <v>1.496857451314765</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.556135853420107</v>
@@ -37683,7 +37485,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.524856010163743</v>
+        <v>1.51022033308795</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.577814857450747</v>
@@ -37772,7 +37574,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.525249012751209</v>
+        <v>1.513168919399136</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.662730904526832</v>
@@ -37861,7 +37663,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.519301027161813</v>
+        <v>1.50334992233259</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.702667505395215</v>
@@ -37950,7 +37752,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.531263433664108</v>
+        <v>1.522025399803026</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.606921029179466</v>
@@ -38039,7 +37841,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.547232056990224</v>
+        <v>1.543737756573452</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.589809619687127</v>
@@ -38128,7 +37930,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.561365384601436</v>
+        <v>1.559004009230174</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.568147512974936</v>
@@ -38217,7 +38019,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.578248458353419</v>
+        <v>1.578033993389905</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.416765094575433</v>
@@ -38306,7 +38108,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.587819973111376</v>
+        <v>1.585697610622612</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.93266280529876</v>
@@ -38395,7 +38197,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.588685606386436</v>
+        <v>1.584387872350399</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.408036121826294</v>
@@ -38484,7 +38286,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.598807639006665</v>
+        <v>1.591390075815868</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.610419520562944</v>
@@ -38573,7 +38375,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.6118520849397</v>
+        <v>1.601633000912754</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.801997243785793</v>
@@ -38662,7 +38464,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.62232223813504</v>
+        <v>1.61062201542611</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.418636112064815</v>
@@ -38751,7 +38553,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.641455920863617</v>
+        <v>1.624222151315055</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.936619863771987</v>
@@ -38840,7 +38642,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.642127580218136</v>
+        <v>1.621379196327857</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.277042043488256</v>
@@ -38929,7 +38731,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.627013837617531</v>
+        <v>1.611698550066629</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.229372614224003</v>
@@ -39018,7 +38820,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.611005882549628</v>
+        <v>1.596050388972083</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.145001200740773</v>
@@ -39107,7 +38909,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.610740699847501</v>
+        <v>1.597474150171887</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.095475599014185</v>
@@ -39196,7 +38998,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.624713615590486</v>
+        <v>1.612110170940067</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.040705587064196</v>
@@ -39285,7 +39087,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.601422069548057</v>
+        <v>1.585380049850067</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.141800430140421</v>
@@ -39374,7 +39176,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.580654221462304</v>
+        <v>1.55680341940716</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.896932152357818</v>
@@ -39463,7 +39265,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.564423128545665</v>
+        <v>1.545758594059104</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.963867189343178</v>
@@ -39552,7 +39354,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.532835368799103</v>
+        <v>1.520753749289325</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.721509875995872</v>
@@ -39641,7 +39443,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.524899974112504</v>
+        <v>1.510774301751273</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.757152228713642</v>
@@ -39730,7 +39532,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.501946307153292</v>
+        <v>1.491483504631701</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.758923866671056</v>
@@ -39819,7 +39621,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.494501625686756</v>
+        <v>1.48949557659345</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.778284613475032</v>
@@ -39908,7 +39710,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.496060917529982</v>
+        <v>1.491666621132848</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.682083504938113</v>
@@ -39997,7 +39799,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.499613473516676</v>
+        <v>1.491816885691779</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.724305150895968</v>
@@ -40086,7 +39888,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.486513182522522</v>
+        <v>1.47611227190744</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.772442088507693</v>
@@ -40175,7 +39977,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.472863983656255</v>
+        <v>1.464461197027063</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.764784909445912</v>
@@ -40264,7 +40066,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.475207803429161</v>
+        <v>1.465657724155875</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.781532507354129</v>
@@ -40353,7 +40155,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.468104937401407</v>
+        <v>1.456276026931716</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.798577455265591</v>
@@ -40442,7 +40244,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.456420781331731</v>
+        <v>1.445969633894987</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.631259135390194</v>
@@ -40531,7 +40333,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.450679909771126</v>
+        <v>1.443099358878064</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.870960393341592</v>
@@ -40620,7 +40422,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.46357984576747</v>
+        <v>1.460868675930484</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.745373701876889</v>
@@ -40709,7 +40511,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.469664814757022</v>
+        <v>1.465564100313647</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.788444544365722</v>
@@ -40798,7 +40600,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.468551529369871</v>
+        <v>1.45642428710961</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.675578628351775</v>
@@ -40887,7 +40689,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.465406263262207</v>
+        <v>1.446639180674697</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.861825856311913</v>
@@ -40976,7 +40778,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.450879254849162</v>
+        <v>1.43077108922542</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.324194972928168</v>
@@ -41065,7 +40867,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.458800214445592</v>
+        <v>1.439246202960759</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.699979522883023</v>
@@ -41154,7 +40956,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.453471068255213</v>
+        <v>1.431304574912656</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.809037463537756</v>
@@ -41243,7 +41045,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.451079141594231</v>
+        <v>1.432005208565597</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.801107222157508</v>
@@ -41332,7 +41134,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.442131585819593</v>
+        <v>1.428871830974511</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.913204204804524</v>
@@ -41421,7 +41223,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.456854812039046</v>
+        <v>1.445410786863249</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.405485665657388</v>
@@ -41510,7 +41312,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.46279824552047</v>
+        <v>1.449576720317102</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.518211742090557</v>
@@ -41599,7 +41401,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.466693899781438</v>
+        <v>1.451812595777716</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.703411256207429</v>
@@ -41688,7 +41490,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.476903932793607</v>
+        <v>1.462108725283513</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.898090313533734</v>
@@ -41777,7 +41579,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.484897456717019</v>
+        <v>1.464850417897044</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.686786366646062</v>
@@ -41866,7 +41668,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.473204040510163</v>
+        <v>1.454611704156105</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.822004860726301</v>
@@ -41955,7 +41757,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.442525964047267</v>
+        <v>1.422027149100235</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.539924170002147</v>
@@ -42044,7 +41846,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.432288696943744</v>
+        <v>1.415030229476947</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.824193223142933</v>
@@ -42133,7 +41935,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.446156980886136</v>
+        <v>1.429974337947739</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.559409330367606</v>
@@ -42419,7 +42221,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.571956831079104</v>
+        <v>1.566097076809968</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.551895023595494</v>
@@ -42508,7 +42310,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.606348905810169</v>
+        <v>1.586290492030263</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.456181438550497</v>
@@ -42597,7 +42399,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.641717731422302</v>
+        <v>1.611724922410067</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.590996429198671</v>
@@ -42686,7 +42488,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.676754133300849</v>
+        <v>1.638832084421934</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.491747886363468</v>
@@ -42775,7 +42577,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.672612417622178</v>
+        <v>1.632504560920816</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.392235302339414</v>
@@ -42864,7 +42666,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.682651958488156</v>
+        <v>1.644999003924859</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.731003952977582</v>
@@ -42953,7 +42755,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.680621597707109</v>
+        <v>1.642019614666121</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.66833230493251</v>
@@ -43042,7 +42844,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.683098325598793</v>
+        <v>1.640756773662149</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.563335871437797</v>
@@ -43131,7 +42933,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.683296252240834</v>
+        <v>1.641608364449431</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.519164549014169</v>
@@ -43220,7 +43022,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.70727431469998</v>
+        <v>1.660706680836207</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.569144420522066</v>
@@ -43309,7 +43111,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.689708069507259</v>
+        <v>1.647961417844238</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.509973576731998</v>
@@ -43398,7 +43200,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.685632060769667</v>
+        <v>1.643425159041072</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.454667864318142</v>
@@ -43487,7 +43289,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.683011008455077</v>
+        <v>1.640264602975718</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.614167741271848</v>
@@ -43576,7 +43378,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.689898141820344</v>
+        <v>1.643181830380209</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.491856730693466</v>
@@ -43665,7 +43467,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.70688345246751</v>
+        <v>1.656697896299612</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.532260252567736</v>
@@ -43754,7 +43556,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.717525528545737</v>
+        <v>1.668765552967602</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.688379141925348</v>
@@ -43843,7 +43645,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.735171209834625</v>
+        <v>1.698424308467281</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.572178828109642</v>
@@ -43932,7 +43734,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.736513552371799</v>
+        <v>1.706956376106191</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.58873588857479</v>
@@ -44021,7 +43823,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.764672123833644</v>
+        <v>1.736254212921561</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.666985182220308</v>
@@ -44110,7 +43912,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.836023194481187</v>
+        <v>1.797185020286711</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.609906646393199</v>
@@ -44199,7 +44001,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.906589504167667</v>
+        <v>1.857260860544243</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.569882088953564</v>
@@ -44288,7 +44090,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.919941129208985</v>
+        <v>1.881548095536517</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.257333256751063</v>
@@ -44377,7 +44179,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.930576374870011</v>
+        <v>1.901341914234454</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.214215368233007</v>
@@ -44466,7 +44268,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.940825152683829</v>
+        <v>1.916503512303305</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.150833812259908</v>
@@ -44555,7 +44357,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.939149680908669</v>
+        <v>1.921633939371451</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.730376578063399</v>
@@ -44644,7 +44446,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.967618884080434</v>
+        <v>1.948540676820569</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.977609545498352</v>
@@ -44733,7 +44535,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.977404015350001</v>
+        <v>1.967774283111119</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.783480823002376</v>
@@ -44822,7 +44624,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.979104727990609</v>
+        <v>1.976631213687247</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.470052030392877</v>
@@ -44911,7 +44713,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.953861543549178</v>
+        <v>1.962993959581403</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.534926210456642</v>
@@ -45000,7 +44802,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.952127049249796</v>
+        <v>1.969100099833866</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.316484039117631</v>
@@ -45089,7 +44891,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.953986397918519</v>
+        <v>1.970725686169201</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.359661288858345</v>
@@ -45178,7 +44980,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.954306006398808</v>
+        <v>1.971478596091061</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.226625052105505</v>
@@ -45267,7 +45069,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.954145229993572</v>
+        <v>1.972665768033556</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.29082311532466</v>
@@ -45356,7 +45158,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.956708802536547</v>
+        <v>1.976109698060981</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.548607841268146</v>
@@ -45445,7 +45247,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.956616605142578</v>
+        <v>1.97439902428056</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.428687285048441</v>
@@ -45534,7 +45336,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.957192159143885</v>
+        <v>1.973002408712286</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.345448883796244</v>
@@ -45623,7 +45425,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.935915352679674</v>
+        <v>1.952864769330087</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.307993193567846</v>
@@ -45712,7 +45514,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.941073152209188</v>
+        <v>1.960631128292226</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.227773552825206</v>
@@ -45801,7 +45603,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.937217252324703</v>
+        <v>1.957197698319455</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.383704346726435</v>
@@ -45890,7 +45692,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.942056123620966</v>
+        <v>1.963206898560226</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.511521648781136</v>
@@ -45979,7 +45781,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.94371112445169</v>
+        <v>1.968234661457491</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.307693197621091</v>
@@ -46068,7 +45870,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.942350870324341</v>
+        <v>1.967476343690068</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.306980458807331</v>
@@ -46157,7 +45959,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.947305343535746</v>
+        <v>1.972289202410181</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.263130141469187</v>
@@ -46246,7 +46048,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.953855293736261</v>
+        <v>1.9759476140844</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.638902616181222</v>
@@ -46335,7 +46137,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.930295969300238</v>
+        <v>1.951568579932502</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.362526149780501</v>
@@ -46424,7 +46226,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.904938078588512</v>
+        <v>1.928822773475631</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.312553802927355</v>
@@ -46513,7 +46315,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.894775085464527</v>
+        <v>1.91648138220464</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.417682322263538</v>
@@ -46602,7 +46404,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.860431247504621</v>
+        <v>1.885286082032177</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.316288606095062</v>
@@ -46691,7 +46493,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.840680999429469</v>
+        <v>1.863777522179014</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.686318191220919</v>
@@ -46780,7 +46582,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.818005001131366</v>
+        <v>1.845591358023479</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.086016195917647</v>
@@ -46869,7 +46671,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.814659673754472</v>
+        <v>1.838738548904612</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.15929005977898</v>
@@ -46958,7 +46760,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.831011296888802</v>
+        <v>1.843256146773132</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.00047578435216</v>
@@ -47047,7 +46849,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.818478191328231</v>
+        <v>1.825869457318544</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.578358082721184</v>
@@ -47136,7 +46938,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.798232497372491</v>
+        <v>1.806283553727896</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.316796204717765</v>
@@ -47225,7 +47027,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.780728752682611</v>
+        <v>1.786907901522335</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.131841554717249</v>
@@ -47314,7 +47116,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.749346522903697</v>
+        <v>1.74919744728693</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.192755355616669</v>
@@ -47403,7 +47205,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.72330226316764</v>
+        <v>1.723454011834711</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.266854869368636</v>
@@ -47492,7 +47294,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.701240579904379</v>
+        <v>1.696525867837197</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.055506228955965</v>
@@ -47581,7 +47383,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.713007015153066</v>
+        <v>1.704598310357303</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.33853773766762</v>
@@ -47670,7 +47472,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.73646888982473</v>
+        <v>1.724278654246591</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.746329975697827</v>
@@ -47759,7 +47561,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.755518857352543</v>
+        <v>1.738239839805872</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.257608658881456</v>
@@ -47848,7 +47650,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.748410464313356</v>
+        <v>1.734727367453752</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.214266086358271</v>
@@ -47937,7 +47739,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.782382898917084</v>
+        <v>1.758789758125155</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.632128479879676</v>
@@ -48026,7 +47828,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.787364359824907</v>
+        <v>1.762030419787044</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.62540516898466</v>
@@ -48115,7 +47917,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.779670798572234</v>
+        <v>1.752143975143989</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.054475885784311</v>
@@ -48204,7 +48006,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.772233588919463</v>
+        <v>1.745992928106823</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.131871214270598</v>
@@ -48293,7 +48095,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.775088433718506</v>
+        <v>1.753698991560172</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.305698125231595</v>
@@ -48382,7 +48184,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.792796595256566</v>
+        <v>1.774973418531324</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.007011759062799</v>
@@ -48471,7 +48273,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.813716973977223</v>
+        <v>1.792053777747238</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.289400369669968</v>
@@ -48560,7 +48362,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.818123655557069</v>
+        <v>1.796873649620623</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.327437667029628</v>
@@ -48649,7 +48451,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.853831109359522</v>
+        <v>1.829709745226272</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.754009167351771</v>
@@ -48738,7 +48540,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.86714611952208</v>
+        <v>1.838891500730231</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.16333706615541</v>
@@ -48827,7 +48629,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.874274688763431</v>
+        <v>1.854559242895205</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.525989645034044</v>
@@ -48916,7 +48718,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.868059107227538</v>
+        <v>1.853500321067391</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.273688189334895</v>
@@ -49005,7 +48807,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.865235058747614</v>
+        <v>1.851395715713521</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.760205781936778</v>
@@ -49094,7 +48896,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.865343423469309</v>
+        <v>1.853035395220762</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.328864657554967</v>
